--- a/汽柴煤油2.0/eta/新加坡92#汽油裂解价差_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/新加坡92#汽油裂解价差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="C3" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="4">
@@ -653,7 +653,7 @@
         <v>5.6</v>
       </c>
       <c r="C17" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="18">
